--- a/Output/1968/California-Hawaii/California-Hawaii.xlsx
+++ b/Output/1968/California-Hawaii/California-Hawaii.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/Cable/Output/1968/California-Hawaii/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,6 +20,12 @@
     <sheet name="Georgia" sheetId="8" r:id="rId6"/>
     <sheet name="Hawaii" sheetId="9" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">California!$D$1:$J$587</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Colorado!$D$1:$J$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Florida!$D$1:$J$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Georgia!$D$1:$J$89</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6138" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6123" uniqueCount="977">
   <si>
     <t>Name</t>
   </si>
@@ -443,9 +449,6 @@
     <t>DEL ROSA</t>
   </si>
   <si>
-    <t>N A</t>
-  </si>
-  <si>
     <t>DESERT CENTER</t>
   </si>
   <si>
@@ -908,9 +911,6 @@
     <t>LYTLE CREEK</t>
   </si>
   <si>
-    <t>HO</t>
-  </si>
-  <si>
     <t>Madera</t>
   </si>
   <si>
@@ -2307,9 +2307,6 @@
   </si>
   <si>
     <t>MERRITT ISLAND</t>
-  </si>
-  <si>
-    <t>5 500</t>
   </si>
   <si>
     <t>Micanopy</t>
@@ -4029,8 +4026,8 @@
       <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="I21" t="s">
-        <v>13</v>
+      <c r="I21">
+        <v>8</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4201,7 +4198,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5793,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>974</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
@@ -5816,7 +5813,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -5845,7 +5842,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -5880,7 +5877,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -5915,7 +5912,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -5950,7 +5947,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -5979,7 +5976,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -6008,7 +6005,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -6037,7 +6034,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -6066,7 +6063,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -6095,7 +6092,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -6130,7 +6127,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -6165,7 +6162,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -6194,7 +6191,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -6223,7 +6220,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -6258,7 +6255,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -6293,7 +6290,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -6325,7 +6322,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -6357,7 +6354,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -6386,7 +6383,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -6421,7 +6418,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -6450,7 +6447,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -6479,7 +6476,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -6514,7 +6511,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -6543,7 +6540,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -6572,7 +6569,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -6607,7 +6604,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -6642,7 +6639,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -6677,7 +6674,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -6706,7 +6703,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -6741,7 +6738,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -6776,7 +6773,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -6811,7 +6808,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -6840,13 +6837,13 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E109" s="2">
         <v>24777</v>
@@ -6869,7 +6866,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -6898,7 +6895,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -6933,7 +6930,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -6962,7 +6959,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -6994,7 +6991,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -7029,7 +7026,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -7064,7 +7061,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -7099,7 +7096,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -7134,7 +7131,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -7163,7 +7160,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -7198,7 +7195,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -7233,7 +7230,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -7268,7 +7265,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -7303,7 +7300,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -7338,7 +7335,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -7373,7 +7370,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -7402,7 +7399,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -7437,7 +7434,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -7466,7 +7463,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -7501,7 +7498,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -7536,7 +7533,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -7571,7 +7568,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -7600,7 +7597,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -7635,7 +7632,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -7670,7 +7667,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -7705,7 +7702,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -7740,7 +7737,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -7769,7 +7766,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -7798,7 +7795,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -7827,7 +7824,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -7856,7 +7853,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -7885,7 +7882,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -7914,7 +7911,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -7949,7 +7946,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7981,7 +7978,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -8010,7 +8007,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -8045,7 +8042,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -8080,7 +8077,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -8109,7 +8106,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -8138,7 +8135,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -8173,7 +8170,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -8202,7 +8199,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -8231,7 +8228,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -8260,7 +8257,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -8289,7 +8286,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -8321,7 +8318,7 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -8353,7 +8350,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -8388,7 +8385,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -8423,7 +8420,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -8458,7 +8455,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -8493,7 +8490,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -8525,7 +8522,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -8554,7 +8551,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -8586,7 +8583,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -8621,7 +8618,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -8650,7 +8647,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -8685,7 +8682,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -8720,7 +8717,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -8755,7 +8752,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -8784,7 +8781,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -8813,7 +8810,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -8842,7 +8839,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -8871,7 +8868,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -8906,7 +8903,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -8941,7 +8938,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -8976,7 +8973,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -9011,7 +9008,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -9040,7 +9037,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -9075,7 +9072,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -9104,7 +9101,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -9121,8 +9118,8 @@
       <c r="G179">
         <v>350</v>
       </c>
-      <c r="H179" t="s">
-        <v>292</v>
+      <c r="H179">
+        <v>110</v>
       </c>
       <c r="I179">
         <v>12</v>
@@ -9133,7 +9130,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -9165,7 +9162,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -9194,7 +9191,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -9223,7 +9220,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -9258,7 +9255,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -9287,7 +9284,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -9316,7 +9313,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -9351,7 +9348,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -9386,7 +9383,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -9421,7 +9418,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -9456,7 +9453,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -9488,7 +9485,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -9517,7 +9514,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -9552,7 +9549,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -9587,7 +9584,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -9622,7 +9619,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -9651,7 +9648,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -9686,7 +9683,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -9721,7 +9718,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -9756,7 +9753,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -9791,7 +9788,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -9826,7 +9823,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -9861,7 +9858,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -9896,7 +9893,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -9931,7 +9928,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -9966,7 +9963,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -10001,7 +9998,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -10036,7 +10033,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -10071,7 +10068,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -10106,7 +10103,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -10141,7 +10138,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -10176,7 +10173,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -10211,7 +10208,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -10246,7 +10243,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -10275,7 +10272,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -10310,7 +10307,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -10345,7 +10342,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -10380,7 +10377,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -10415,7 +10412,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -10444,7 +10441,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -10476,7 +10473,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -10511,7 +10508,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -10546,7 +10543,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -10581,7 +10578,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -10616,7 +10613,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -10651,7 +10648,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -10680,7 +10677,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -10715,7 +10712,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -10750,7 +10747,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -10779,7 +10776,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -10814,7 +10811,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -10849,7 +10846,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -10878,7 +10875,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -10948,7 +10945,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -10983,7 +10980,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -11018,7 +11015,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -11053,7 +11050,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -11088,7 +11085,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -11117,7 +11114,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -11152,7 +11149,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -11181,7 +11178,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -11210,13 +11207,13 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
-      <c r="D242" t="s">
-        <v>13</v>
+      <c r="D242" s="1">
+        <v>32440</v>
       </c>
       <c r="E242" s="2">
         <v>23894</v>
@@ -11239,7 +11236,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -11268,7 +11265,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -11279,8 +11276,8 @@
       <c r="E244" s="3">
         <v>23834</v>
       </c>
-      <c r="F244" t="s">
-        <v>13</v>
+      <c r="F244" s="1">
+        <v>2483</v>
       </c>
       <c r="G244" t="s">
         <v>30</v>
@@ -11297,7 +11294,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -11326,13 +11323,13 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
-      <c r="D246" t="s">
-        <v>13</v>
+      <c r="D246" s="1">
+        <v>20861</v>
       </c>
       <c r="E246" s="3">
         <v>23613</v>
@@ -11355,7 +11352,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -11384,7 +11381,7 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -11413,7 +11410,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -11442,7 +11439,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -11477,7 +11474,7 @@
     </row>
     <row r="251" spans="1:12">
       <c r="A251" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -11506,7 +11503,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -11535,7 +11532,7 @@
     </row>
     <row r="253" spans="1:12">
       <c r="A253" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -11570,7 +11567,7 @@
     </row>
     <row r="254" spans="1:12">
       <c r="A254" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -11605,7 +11602,7 @@
     </row>
     <row r="255" spans="1:12">
       <c r="A255" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -11640,7 +11637,7 @@
     </row>
     <row r="256" spans="1:12">
       <c r="A256" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -11675,7 +11672,7 @@
     </row>
     <row r="257" spans="1:12">
       <c r="A257" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -11704,7 +11701,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -11739,7 +11736,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -11774,7 +11771,7 @@
     </row>
     <row r="260" spans="1:12">
       <c r="A260" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -11809,7 +11806,7 @@
     </row>
     <row r="261" spans="1:12">
       <c r="A261" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -11838,7 +11835,7 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -11867,7 +11864,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="A263" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -11896,7 +11893,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -11925,7 +11922,7 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -11954,7 +11951,7 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -11989,7 +11986,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -12018,7 +12015,7 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -12047,7 +12044,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -12079,7 +12076,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -12108,7 +12105,7 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -12137,7 +12134,7 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -12172,7 +12169,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -12201,7 +12198,7 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -12230,7 +12227,7 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -12259,7 +12256,7 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -12288,7 +12285,7 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -12317,7 +12314,7 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -12352,7 +12349,7 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -12387,7 +12384,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -12422,7 +12419,7 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -12454,7 +12451,7 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -12489,7 +12486,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="A283" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -12524,7 +12521,7 @@
     </row>
     <row r="284" spans="1:12">
       <c r="A284" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -12559,7 +12556,7 @@
     </row>
     <row r="285" spans="1:12">
       <c r="A285" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -12594,7 +12591,7 @@
     </row>
     <row r="286" spans="1:12">
       <c r="A286" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -12629,7 +12626,7 @@
     </row>
     <row r="287" spans="1:12">
       <c r="A287" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -12664,7 +12661,7 @@
     </row>
     <row r="288" spans="1:12">
       <c r="A288" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -12693,7 +12690,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -12728,7 +12725,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -12763,7 +12760,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -12798,7 +12795,7 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -12833,7 +12830,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -12868,7 +12865,7 @@
     </row>
     <row r="294" spans="1:12">
       <c r="A294" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -12900,7 +12897,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -12932,7 +12929,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -12967,7 +12964,7 @@
     </row>
     <row r="297" spans="1:12">
       <c r="A297" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -12996,7 +12993,7 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -13031,7 +13028,7 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -13060,7 +13057,7 @@
     </row>
     <row r="300" spans="1:12">
       <c r="A300" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -13095,7 +13092,7 @@
     </row>
     <row r="301" spans="1:12">
       <c r="A301" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -13124,7 +13121,7 @@
     </row>
     <row r="302" spans="1:12">
       <c r="A302" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -13159,7 +13156,7 @@
     </row>
     <row r="303" spans="1:12">
       <c r="A303" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -13188,7 +13185,7 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -13217,7 +13214,7 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -13252,7 +13249,7 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -13287,7 +13284,7 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -13322,7 +13319,7 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -13357,7 +13354,7 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -13392,7 +13389,7 @@
     </row>
     <row r="310" spans="1:12">
       <c r="A310" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -13427,7 +13424,7 @@
     </row>
     <row r="311" spans="1:12">
       <c r="A311" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -13462,7 +13459,7 @@
     </row>
     <row r="312" spans="1:12">
       <c r="A312" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -13497,7 +13494,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -13532,7 +13529,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -13567,7 +13564,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -13602,7 +13599,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -13631,7 +13628,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -13660,7 +13657,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -13689,7 +13686,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -13724,7 +13721,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -13759,7 +13756,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -13788,7 +13785,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -13817,7 +13814,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -13852,7 +13849,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -13881,7 +13878,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -13916,7 +13913,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -13951,7 +13948,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -13986,7 +13983,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -14021,7 +14018,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -14056,7 +14053,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -14091,7 +14088,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -14126,7 +14123,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -14161,7 +14158,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -14196,7 +14193,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -14231,7 +14228,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -14260,7 +14257,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -14289,7 +14286,7 @@
     </row>
     <row r="337" spans="1:12">
       <c r="A337" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -14324,7 +14321,7 @@
     </row>
     <row r="338" spans="1:12">
       <c r="A338" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -14359,7 +14356,7 @@
     </row>
     <row r="339" spans="1:12">
       <c r="A339" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -14394,7 +14391,7 @@
     </row>
     <row r="340" spans="1:12">
       <c r="A340" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -14429,7 +14426,7 @@
     </row>
     <row r="341" spans="1:12">
       <c r="A341" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -14464,7 +14461,7 @@
     </row>
     <row r="342" spans="1:12">
       <c r="A342" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -14499,7 +14496,7 @@
     </row>
     <row r="343" spans="1:12">
       <c r="A343" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -14528,7 +14525,7 @@
     </row>
     <row r="344" spans="1:12">
       <c r="A344" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -14557,7 +14554,7 @@
     </row>
     <row r="345" spans="1:12">
       <c r="A345" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -14592,7 +14589,7 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -14627,7 +14624,7 @@
     </row>
     <row r="347" spans="1:12">
       <c r="A347" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -14656,7 +14653,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="A348" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -14685,7 +14682,7 @@
     </row>
     <row r="349" spans="1:12">
       <c r="A349" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -14720,25 +14717,25 @@
     </row>
     <row r="350" spans="1:12">
       <c r="A350" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B350">
         <v>0</v>
       </c>
-      <c r="D350" t="s">
-        <v>13</v>
+      <c r="D350" s="1">
+        <v>13279</v>
       </c>
       <c r="E350" s="2">
         <v>23529</v>
       </c>
-      <c r="F350" t="s">
-        <v>13</v>
+      <c r="F350" s="1">
+        <v>1500</v>
       </c>
       <c r="G350" s="1">
         <v>5000</v>
       </c>
-      <c r="H350" t="s">
-        <v>13</v>
+      <c r="H350" s="1">
+        <v>3500</v>
       </c>
       <c r="I350">
         <v>12</v>
@@ -14749,13 +14746,13 @@
     </row>
     <row r="351" spans="1:12">
       <c r="A351" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B351">
         <v>0</v>
       </c>
-      <c r="D351" t="s">
-        <v>13</v>
+      <c r="D351" s="1">
+        <v>42000</v>
       </c>
       <c r="E351" s="3">
         <v>24365</v>
@@ -14778,7 +14775,7 @@
     </row>
     <row r="352" spans="1:12">
       <c r="A352" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -14810,7 +14807,7 @@
     </row>
     <row r="353" spans="1:12">
       <c r="A353" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -14839,7 +14836,7 @@
     </row>
     <row r="354" spans="1:12">
       <c r="A354" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -14868,7 +14865,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -14897,7 +14894,7 @@
     </row>
     <row r="356" spans="1:12">
       <c r="A356" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -14929,13 +14926,13 @@
     </row>
     <row r="357" spans="1:12">
       <c r="A357" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B357">
         <v>0</v>
       </c>
-      <c r="D357" t="s">
-        <v>13</v>
+      <c r="D357" s="1">
+        <v>4000</v>
       </c>
       <c r="E357" s="2">
         <v>20852</v>
@@ -14958,7 +14955,7 @@
     </row>
     <row r="358" spans="1:12">
       <c r="A358" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -14987,7 +14984,7 @@
     </row>
     <row r="359" spans="1:12">
       <c r="A359" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -15016,7 +15013,7 @@
     </row>
     <row r="360" spans="1:12">
       <c r="A360" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -15051,7 +15048,7 @@
     </row>
     <row r="361" spans="1:12">
       <c r="A361" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -15080,7 +15077,7 @@
     </row>
     <row r="362" spans="1:12">
       <c r="A362" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -15109,7 +15106,7 @@
     </row>
     <row r="363" spans="1:12">
       <c r="A363" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -15138,7 +15135,7 @@
     </row>
     <row r="364" spans="1:12">
       <c r="A364" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -15170,7 +15167,7 @@
     </row>
     <row r="365" spans="1:12">
       <c r="A365" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -15199,7 +15196,7 @@
     </row>
     <row r="366" spans="1:12">
       <c r="A366" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -15228,7 +15225,7 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -15257,7 +15254,7 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -15289,7 +15286,7 @@
     </row>
     <row r="369" spans="1:12">
       <c r="A369" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -15324,7 +15321,7 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -15359,7 +15356,7 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -15394,7 +15391,7 @@
     </row>
     <row r="372" spans="1:12">
       <c r="A372" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -15429,7 +15426,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="A373" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -15464,7 +15461,7 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -15499,7 +15496,7 @@
     </row>
     <row r="375" spans="1:12">
       <c r="A375" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -15534,7 +15531,7 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -15563,7 +15560,7 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -15598,7 +15595,7 @@
     </row>
     <row r="378" spans="1:12">
       <c r="A378" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -15627,7 +15624,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="A379" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -15662,7 +15659,7 @@
     </row>
     <row r="380" spans="1:12">
       <c r="A380" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -15691,7 +15688,7 @@
     </row>
     <row r="381" spans="1:12">
       <c r="A381" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -15720,7 +15717,7 @@
     </row>
     <row r="382" spans="1:12">
       <c r="A382" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -15749,7 +15746,7 @@
     </row>
     <row r="383" spans="1:12">
       <c r="A383" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -15778,7 +15775,7 @@
     </row>
     <row r="384" spans="1:12">
       <c r="A384" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -15807,7 +15804,7 @@
     </row>
     <row r="385" spans="1:12">
       <c r="A385" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -15836,7 +15833,7 @@
     </row>
     <row r="386" spans="1:12">
       <c r="A386" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -15865,7 +15862,7 @@
     </row>
     <row r="387" spans="1:12">
       <c r="A387" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -15900,7 +15897,7 @@
     </row>
     <row r="388" spans="1:12">
       <c r="A388" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -15932,13 +15929,13 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B389">
         <v>0</v>
       </c>
       <c r="D389" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E389">
         <v>1963</v>
@@ -15961,7 +15958,7 @@
     </row>
     <row r="390" spans="1:12">
       <c r="A390" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -15996,7 +15993,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -16025,7 +16022,7 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -16060,7 +16057,7 @@
     </row>
     <row r="393" spans="1:12">
       <c r="A393" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -16095,7 +16092,7 @@
     </row>
     <row r="394" spans="1:12">
       <c r="A394" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -16130,7 +16127,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="A395" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -16165,7 +16162,7 @@
     </row>
     <row r="396" spans="1:12">
       <c r="A396" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -16200,7 +16197,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -16221,7 +16218,7 @@
         <v>13</v>
       </c>
       <c r="I397" t="s">
-        <v>13</v>
+        <v>974</v>
       </c>
       <c r="J397">
         <v>1</v>
@@ -16229,7 +16226,7 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -16264,7 +16261,7 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -16299,7 +16296,7 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -16334,7 +16331,7 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -16369,7 +16366,7 @@
     </row>
     <row r="402" spans="1:12">
       <c r="A402" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -16398,7 +16395,7 @@
     </row>
     <row r="403" spans="1:12">
       <c r="A403" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -16433,7 +16430,7 @@
     </row>
     <row r="404" spans="1:12">
       <c r="A404" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -16462,7 +16459,7 @@
     </row>
     <row r="405" spans="1:12">
       <c r="A405" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -16497,7 +16494,7 @@
     </row>
     <row r="406" spans="1:12">
       <c r="A406" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -16532,7 +16529,7 @@
     </row>
     <row r="407" spans="1:12">
       <c r="A407" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -16567,7 +16564,7 @@
     </row>
     <row r="408" spans="1:12">
       <c r="A408" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -16596,7 +16593,7 @@
     </row>
     <row r="409" spans="1:12">
       <c r="A409" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -16631,7 +16628,7 @@
     </row>
     <row r="410" spans="1:12">
       <c r="A410" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -16660,7 +16657,7 @@
     </row>
     <row r="411" spans="1:12">
       <c r="A411" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -16689,7 +16686,7 @@
     </row>
     <row r="412" spans="1:12">
       <c r="A412" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -16724,7 +16721,7 @@
     </row>
     <row r="413" spans="1:12">
       <c r="A413" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -16759,7 +16756,7 @@
     </row>
     <row r="414" spans="1:12">
       <c r="A414" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -16794,7 +16791,7 @@
     </row>
     <row r="415" spans="1:12">
       <c r="A415" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -16829,7 +16826,7 @@
     </row>
     <row r="416" spans="1:12">
       <c r="A416" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -16858,7 +16855,7 @@
     </row>
     <row r="417" spans="1:12">
       <c r="A417" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -16893,7 +16890,7 @@
     </row>
     <row r="418" spans="1:12">
       <c r="A418" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -16928,7 +16925,7 @@
     </row>
     <row r="419" spans="1:12">
       <c r="A419" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -16963,7 +16960,7 @@
     </row>
     <row r="420" spans="1:12">
       <c r="A420" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -16998,7 +16995,7 @@
     </row>
     <row r="421" spans="1:12">
       <c r="A421" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -17033,7 +17030,7 @@
     </row>
     <row r="422" spans="1:12">
       <c r="A422" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -17065,7 +17062,7 @@
     </row>
     <row r="423" spans="1:12">
       <c r="A423" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -17094,7 +17091,7 @@
     </row>
     <row r="424" spans="1:12">
       <c r="A424" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -17123,7 +17120,7 @@
     </row>
     <row r="425" spans="1:12">
       <c r="A425" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -17152,7 +17149,7 @@
     </row>
     <row r="426" spans="1:12">
       <c r="A426" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -17187,7 +17184,7 @@
     </row>
     <row r="427" spans="1:12">
       <c r="A427" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -17219,7 +17216,7 @@
     </row>
     <row r="428" spans="1:12">
       <c r="A428" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -17248,7 +17245,7 @@
     </row>
     <row r="429" spans="1:12">
       <c r="A429" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -17277,7 +17274,7 @@
     </row>
     <row r="430" spans="1:12">
       <c r="A430" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -17306,7 +17303,7 @@
     </row>
     <row r="431" spans="1:12">
       <c r="A431" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -17341,7 +17338,7 @@
     </row>
     <row r="432" spans="1:12">
       <c r="A432" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -17376,7 +17373,7 @@
     </row>
     <row r="433" spans="1:12">
       <c r="A433" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -17411,7 +17408,7 @@
     </row>
     <row r="434" spans="1:12">
       <c r="A434" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -17440,7 +17437,7 @@
     </row>
     <row r="435" spans="1:12">
       <c r="A435" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -17475,7 +17472,7 @@
     </row>
     <row r="436" spans="1:12">
       <c r="A436" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -17504,7 +17501,7 @@
     </row>
     <row r="437" spans="1:12">
       <c r="A437" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -17539,7 +17536,7 @@
     </row>
     <row r="438" spans="1:12">
       <c r="A438" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -17574,7 +17571,7 @@
     </row>
     <row r="439" spans="1:12">
       <c r="A439" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -17609,7 +17606,7 @@
     </row>
     <row r="440" spans="1:12">
       <c r="A440" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -18001,29 +17998,29 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
+        <v>137</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474" t="s">
         <v>138</v>
-      </c>
-      <c r="B474">
-        <v>1</v>
-      </c>
-      <c r="C474" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
+        <v>142</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475" t="s">
         <v>143</v>
-      </c>
-      <c r="B475">
-        <v>1</v>
-      </c>
-      <c r="C475" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -18034,40 +18031,40 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
+        <v>152</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477" t="s">
         <v>153</v>
-      </c>
-      <c r="B477">
-        <v>1</v>
-      </c>
-      <c r="C477" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
+        <v>156</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478" t="s">
         <v>157</v>
-      </c>
-      <c r="B478">
-        <v>1</v>
-      </c>
-      <c r="C478" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
+        <v>160</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479" t="s">
         <v>161</v>
-      </c>
-      <c r="B479">
-        <v>1</v>
-      </c>
-      <c r="C479" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -18078,18 +18075,18 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
+        <v>165</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+      <c r="C481" t="s">
         <v>166</v>
-      </c>
-      <c r="B481">
-        <v>1</v>
-      </c>
-      <c r="C481" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -18100,18 +18097,18 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
+        <v>177</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483" t="s">
         <v>178</v>
-      </c>
-      <c r="B483">
-        <v>1</v>
-      </c>
-      <c r="C483" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -18122,7 +18119,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -18133,7 +18130,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -18144,7 +18141,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -18155,7 +18152,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -18166,29 +18163,29 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
+        <v>200</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489" t="s">
         <v>201</v>
-      </c>
-      <c r="B489">
-        <v>1</v>
-      </c>
-      <c r="C489" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
+        <v>206</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490" t="s">
         <v>207</v>
-      </c>
-      <c r="B490">
-        <v>1</v>
-      </c>
-      <c r="C490" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -18199,29 +18196,29 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
+        <v>210</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492" t="s">
         <v>211</v>
-      </c>
-      <c r="B492">
-        <v>1</v>
-      </c>
-      <c r="C492" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
+        <v>212</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493" t="s">
         <v>213</v>
-      </c>
-      <c r="B493">
-        <v>1</v>
-      </c>
-      <c r="C493" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -18232,7 +18229,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -18243,7 +18240,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -18254,7 +18251,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -18265,29 +18262,29 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
+        <v>222</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498" t="s">
         <v>223</v>
-      </c>
-      <c r="B498">
-        <v>1</v>
-      </c>
-      <c r="C498" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
+        <v>224</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499" t="s">
         <v>225</v>
-      </c>
-      <c r="B499">
-        <v>1</v>
-      </c>
-      <c r="C499" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -18298,106 +18295,106 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
+        <v>229</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+      <c r="C501" t="s">
         <v>230</v>
-      </c>
-      <c r="B501">
-        <v>1</v>
-      </c>
-      <c r="C501" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
+        <v>233</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502" t="s">
         <v>234</v>
-      </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-      <c r="C502" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
+        <v>240</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+      <c r="C503" t="s">
         <v>241</v>
-      </c>
-      <c r="B503">
-        <v>1</v>
-      </c>
-      <c r="C503" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
+        <v>246</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504" t="s">
         <v>247</v>
-      </c>
-      <c r="B504">
-        <v>1</v>
-      </c>
-      <c r="C504" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
+        <v>248</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+      <c r="C505" t="s">
         <v>249</v>
-      </c>
-      <c r="B505">
-        <v>1</v>
-      </c>
-      <c r="C505" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
+        <v>252</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506" t="s">
         <v>253</v>
-      </c>
-      <c r="B506">
-        <v>1</v>
-      </c>
-      <c r="C506" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B507">
         <v>1</v>
       </c>
       <c r="C507" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
+        <v>257</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508" t="s">
         <v>258</v>
-      </c>
-      <c r="B508">
-        <v>1</v>
-      </c>
-      <c r="C508" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B509">
         <v>1</v>
       </c>
       <c r="C509" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -18408,62 +18405,62 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
+        <v>262</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511" t="s">
         <v>263</v>
-      </c>
-      <c r="B511">
-        <v>1</v>
-      </c>
-      <c r="C511" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
+        <v>264</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512" t="s">
         <v>265</v>
-      </c>
-      <c r="B512">
-        <v>1</v>
-      </c>
-      <c r="C512" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
+        <v>269</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+      <c r="C513" t="s">
         <v>270</v>
-      </c>
-      <c r="B513">
-        <v>1</v>
-      </c>
-      <c r="C513" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
+        <v>272</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514" t="s">
         <v>273</v>
-      </c>
-      <c r="B514">
-        <v>1</v>
-      </c>
-      <c r="C514" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
+        <v>278</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+      <c r="C515" t="s">
         <v>279</v>
-      </c>
-      <c r="B515">
-        <v>1</v>
-      </c>
-      <c r="C515" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -18474,40 +18471,40 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B517">
         <v>1</v>
       </c>
       <c r="C517" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B518">
         <v>1</v>
       </c>
       <c r="C518" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B519">
         <v>1</v>
       </c>
       <c r="C519" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -18518,18 +18515,18 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B521">
         <v>1</v>
       </c>
       <c r="C521" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -18540,51 +18537,51 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B523">
         <v>1</v>
       </c>
       <c r="C523" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B524">
         <v>1</v>
       </c>
       <c r="C524" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B525">
         <v>1</v>
       </c>
       <c r="C525" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B526">
         <v>1</v>
       </c>
       <c r="C526" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -18595,161 +18592,161 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B528">
         <v>1</v>
       </c>
       <c r="C528" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B529">
         <v>1</v>
       </c>
       <c r="C529" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B530">
         <v>1</v>
       </c>
       <c r="C530" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B531">
         <v>1</v>
       </c>
       <c r="C531" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B532">
         <v>1</v>
       </c>
       <c r="C532" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B533">
         <v>1</v>
       </c>
       <c r="C533" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B534">
         <v>1</v>
       </c>
       <c r="C534" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B535">
         <v>1</v>
       </c>
       <c r="C535" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B536">
         <v>1</v>
       </c>
       <c r="C536" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B537">
         <v>1</v>
       </c>
       <c r="C537" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B538">
         <v>1</v>
       </c>
       <c r="C538" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B539">
         <v>1</v>
       </c>
       <c r="C539" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B540">
         <v>1</v>
       </c>
       <c r="C540" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B541">
         <v>1</v>
       </c>
       <c r="C541" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -18760,18 +18757,18 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B543">
         <v>1</v>
       </c>
       <c r="C543" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -18782,18 +18779,18 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B545">
         <v>1</v>
       </c>
       <c r="C545" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -18804,7 +18801,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B547">
         <v>1</v>
@@ -18815,40 +18812,40 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B548">
         <v>1</v>
       </c>
       <c r="C548" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B549">
         <v>1</v>
       </c>
       <c r="C549" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B550">
         <v>1</v>
       </c>
       <c r="C550" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -18859,62 +18856,62 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B552">
         <v>1</v>
       </c>
       <c r="C552" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B553">
         <v>1</v>
       </c>
       <c r="C553" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B554">
         <v>1</v>
       </c>
       <c r="C554" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B555">
         <v>1</v>
       </c>
       <c r="C555" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B556">
         <v>1</v>
       </c>
       <c r="C556" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -18925,29 +18922,29 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B558">
         <v>1</v>
       </c>
       <c r="C558" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B559">
         <v>1</v>
       </c>
       <c r="C559" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -18958,7 +18955,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -18969,18 +18966,18 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B562">
         <v>1</v>
       </c>
       <c r="C562" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -18991,7 +18988,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -19002,18 +18999,18 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B565">
         <v>1</v>
       </c>
       <c r="C565" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -19024,18 +19021,18 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B567">
         <v>1</v>
       </c>
       <c r="C567" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -19046,7 +19043,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -19057,7 +19054,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -19068,117 +19065,117 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B571">
         <v>1</v>
       </c>
       <c r="C571" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B572">
         <v>1</v>
       </c>
       <c r="C572" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B573">
         <v>1</v>
       </c>
       <c r="C573" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B574">
         <v>1</v>
       </c>
       <c r="C574" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B575">
         <v>1</v>
       </c>
       <c r="C575" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B576">
         <v>1</v>
       </c>
       <c r="C576" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B577">
         <v>1</v>
       </c>
       <c r="C577" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B578">
         <v>1</v>
       </c>
       <c r="C578" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B579">
         <v>1</v>
       </c>
       <c r="C579" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B580">
         <v>1</v>
       </c>
       <c r="C580" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -19189,7 +19186,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -19200,7 +19197,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -19211,29 +19208,29 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B584">
         <v>1</v>
       </c>
       <c r="C584" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B585">
         <v>1</v>
       </c>
       <c r="C585" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -19244,13 +19241,13 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B587">
         <v>1</v>
       </c>
       <c r="C587" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -19313,7 +19310,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -19342,7 +19339,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -19377,7 +19374,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -19412,7 +19409,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -19447,7 +19444,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -19476,7 +19473,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -19511,7 +19508,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -19540,7 +19537,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -19575,7 +19572,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -19610,7 +19607,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -19645,7 +19642,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -19665,8 +19662,8 @@
       <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
+      <c r="I12">
+        <v>5</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -19674,7 +19671,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -19709,7 +19706,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -19744,7 +19741,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -19773,7 +19770,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -19805,7 +19802,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -19840,7 +19837,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -19869,7 +19866,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -19904,7 +19901,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -19939,7 +19936,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -19974,7 +19971,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -20009,7 +20006,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -20044,7 +20041,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -20079,7 +20076,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -20108,7 +20105,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -20143,7 +20140,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -20178,7 +20175,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -20207,7 +20204,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -20242,7 +20239,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -20277,7 +20274,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -20312,7 +20309,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -20347,7 +20344,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -20382,7 +20379,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -20417,7 +20414,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -20446,7 +20443,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -20481,7 +20478,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -20516,7 +20513,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -20551,7 +20548,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -20580,7 +20577,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -20615,7 +20612,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -20650,7 +20647,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -20685,7 +20682,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -20720,7 +20717,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -20755,7 +20752,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -20784,7 +20781,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -20816,7 +20813,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -20851,7 +20848,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -20886,7 +20883,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -20915,7 +20912,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -20950,7 +20947,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -20985,7 +20982,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -21014,7 +21011,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -21049,7 +21046,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -21084,7 +21081,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -21119,7 +21116,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -21148,7 +21145,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -21177,7 +21174,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -21206,7 +21203,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -21241,7 +21238,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -21276,7 +21273,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -21311,7 +21308,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -21346,7 +21343,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -21381,7 +21378,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -21416,7 +21413,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -21445,7 +21442,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -21480,7 +21477,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -21509,7 +21506,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -21544,7 +21541,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -21573,7 +21570,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -21602,7 +21599,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -21631,7 +21628,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -21666,7 +21663,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -21698,7 +21695,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -21733,68 +21730,68 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -21857,7 +21854,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -21892,7 +21889,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -21927,7 +21924,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -21956,7 +21953,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -21991,7 +21988,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -22020,7 +22017,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -22049,7 +22046,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -22084,7 +22081,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -22119,7 +22116,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -22154,7 +22151,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -22189,7 +22186,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -22224,7 +22221,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -22259,7 +22256,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -22288,7 +22285,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -22317,7 +22314,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -22352,7 +22349,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -22387,7 +22384,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -22419,112 +22416,112 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -22587,7 +22584,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -22677,7 +22674,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -22712,7 +22709,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -22747,7 +22744,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -22776,7 +22773,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -22805,7 +22802,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -22840,7 +22837,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -22875,7 +22872,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -22910,7 +22907,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -22945,7 +22942,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -22974,7 +22971,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -23003,7 +23000,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -23038,7 +23035,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -23073,7 +23070,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -23108,7 +23105,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -23143,7 +23140,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -23178,7 +23175,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -23213,7 +23210,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -23248,7 +23245,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -23283,7 +23280,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -23318,7 +23315,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -23353,7 +23350,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -23382,7 +23379,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -23411,7 +23408,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -23446,7 +23443,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -23481,7 +23478,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -23516,7 +23513,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -23545,7 +23542,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -23580,7 +23577,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -23615,7 +23612,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -23647,7 +23644,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -23679,7 +23676,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -23714,7 +23711,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -23749,7 +23746,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -23784,7 +23781,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -23819,7 +23816,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -23854,7 +23851,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -23889,7 +23886,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -23924,7 +23921,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -23959,7 +23956,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -23994,7 +23991,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -24029,7 +24026,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -24064,7 +24061,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -24099,7 +24096,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -24134,7 +24131,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -24163,7 +24160,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -24195,7 +24192,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -24224,7 +24221,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -24259,7 +24256,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -24288,7 +24285,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -24323,7 +24320,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -24358,7 +24355,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -24393,7 +24390,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -24428,7 +24425,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -24463,7 +24460,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -24498,7 +24495,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -24533,7 +24530,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -24565,7 +24562,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -24600,7 +24597,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -24635,7 +24632,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -24670,7 +24667,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -24705,7 +24702,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -24740,7 +24737,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -24775,7 +24772,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -24804,7 +24801,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -24839,7 +24836,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -24868,7 +24865,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -24897,7 +24894,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -24926,7 +24923,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -24961,7 +24958,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -24996,7 +24993,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -25031,7 +25028,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -25066,7 +25063,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -25101,7 +25098,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -25136,7 +25133,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -25165,7 +25162,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -25200,7 +25197,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -25229,7 +25226,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -25264,7 +25261,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -25299,7 +25296,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -25334,7 +25331,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -25369,7 +25366,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -25401,7 +25398,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -25436,7 +25433,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -25465,7 +25462,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -25497,7 +25494,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -25526,7 +25523,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -25543,8 +25540,8 @@
       <c r="G87" s="1">
         <v>5500</v>
       </c>
-      <c r="H87" t="s">
-        <v>759</v>
+      <c r="H87" s="1">
+        <v>5500</v>
       </c>
       <c r="I87">
         <v>12</v>
@@ -25555,7 +25552,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -25587,7 +25584,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -25622,7 +25619,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -25657,7 +25654,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -25692,7 +25689,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -25727,7 +25724,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -25762,7 +25759,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -25797,7 +25794,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -25832,7 +25829,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -25867,7 +25864,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -25902,7 +25899,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -25931,7 +25928,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -25960,7 +25957,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -25989,7 +25986,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -26018,7 +26015,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -26053,7 +26050,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -26082,7 +26079,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -26117,7 +26114,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -26152,7 +26149,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -26187,7 +26184,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -26222,7 +26219,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -26257,7 +26254,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -26292,7 +26289,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -26327,7 +26324,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -26362,7 +26359,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -26397,7 +26394,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -26432,7 +26429,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -26467,7 +26464,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -26502,7 +26499,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -26537,7 +26534,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -26572,7 +26569,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -26607,7 +26604,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -26642,7 +26639,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -26677,7 +26674,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -26706,7 +26703,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -26741,7 +26738,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -26776,7 +26773,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -26805,7 +26802,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -26840,7 +26837,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -26875,7 +26872,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -26904,7 +26901,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -26939,7 +26936,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -26974,7 +26971,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -27009,7 +27006,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -27044,7 +27041,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -27079,7 +27076,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -27114,7 +27111,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -27149,7 +27146,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -27178,7 +27175,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -27213,7 +27210,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -27248,7 +27245,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -27277,7 +27274,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -27306,7 +27303,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -27341,7 +27338,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -27370,7 +27367,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -27405,7 +27402,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -27440,7 +27437,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -27475,7 +27472,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -27510,7 +27507,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -27545,7 +27542,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -27580,7 +27577,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -27609,7 +27606,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -27638,7 +27635,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -27673,7 +27670,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -27708,7 +27705,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -27743,7 +27740,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -27772,7 +27769,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -27807,13 +27804,13 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-      <c r="D155" t="s">
-        <v>13</v>
+      <c r="D155" s="1">
+        <v>48174</v>
       </c>
       <c r="E155" s="2">
         <v>23346</v>
@@ -27822,7 +27819,7 @@
         <v>2500</v>
       </c>
       <c r="G155" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -27836,7 +27833,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -27871,7 +27868,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -27906,7 +27903,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -27941,7 +27938,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -27976,7 +27973,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -28011,7 +28008,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -28043,7 +28040,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -28072,7 +28069,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -28101,7 +28098,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -28136,7 +28133,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -28171,7 +28168,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -28206,7 +28203,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -28241,7 +28238,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -28276,7 +28273,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -28311,7 +28308,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -28340,7 +28337,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -28375,7 +28372,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -28404,7 +28401,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -28439,7 +28436,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -28474,629 +28471,629 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B230">
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -29160,7 +29157,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -29189,7 +29186,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -29218,7 +29215,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -29253,7 +29250,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -29282,7 +29279,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -29317,7 +29314,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -29352,7 +29349,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -29387,7 +29384,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -29422,7 +29419,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -29457,7 +29454,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -29492,7 +29489,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -29527,7 +29524,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -29562,7 +29559,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -29597,7 +29594,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -29632,7 +29629,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -29661,7 +29658,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -29696,7 +29693,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -29731,7 +29728,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -29766,7 +29763,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -29801,7 +29798,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -29830,7 +29827,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -29865,7 +29862,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -29900,7 +29897,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -29935,7 +29932,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -29970,7 +29967,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -30005,7 +30002,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -30040,7 +30037,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -30072,7 +30069,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -30107,7 +30104,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -30142,7 +30139,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -30177,7 +30174,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -30212,7 +30209,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -30247,7 +30244,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -30276,7 +30273,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -30311,7 +30308,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -30340,7 +30337,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -30375,7 +30372,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -30410,7 +30407,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -30439,7 +30436,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -30468,13 +30465,13 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
-        <v>13</v>
+      <c r="D41" s="1">
+        <v>5118</v>
       </c>
       <c r="E41" s="2">
         <v>24259</v>
@@ -30497,7 +30494,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -30526,7 +30523,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -30555,7 +30552,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -30584,7 +30581,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -30619,7 +30616,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -30654,7 +30651,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -30683,7 +30680,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -30715,7 +30712,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -30750,7 +30747,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -30779,7 +30776,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -30814,7 +30811,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -30849,7 +30846,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -30884,7 +30881,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -30913,7 +30910,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -30942,7 +30939,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -30977,7 +30974,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -31006,7 +31003,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -31035,7 +31032,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -31064,7 +31061,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -31093,7 +31090,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -31128,7 +31125,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -31163,7 +31160,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -31192,7 +31189,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -31221,7 +31218,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -31250,7 +31247,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -31279,7 +31276,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -31308,7 +31305,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -31343,7 +31340,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -31378,7 +31375,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -31413,7 +31410,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -31448,7 +31445,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -31477,7 +31474,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -31506,7 +31503,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -31535,7 +31532,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -31564,13 +31561,13 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="D76" t="s">
-        <v>13</v>
+      <c r="D76" s="1">
+        <v>23565</v>
       </c>
       <c r="E76" s="2">
         <v>23498</v>
@@ -31593,7 +31590,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -31628,7 +31625,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -31657,123 +31654,123 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -31836,7 +31833,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -31865,7 +31862,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -31894,7 +31891,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -31923,7 +31920,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -31958,7 +31955,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -31987,35 +31984,35 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
